--- a/GenerateApp/tables_short_horiz/Data/9/source.xlsx
+++ b/GenerateApp/tables_short_horiz/Data/9/source.xlsx
@@ -11,6 +11,35 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>HRS</t>
+  </si>
+  <si>
+    <t>MTB</t>
+  </si>
+  <si>
+    <t>GRMN</t>
+  </si>
+  <si>
+    <t>AMG</t>
+  </si>
+  <si>
+    <t>HON</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,227 +98,70 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF6600"/>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$1:$A$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>UAL</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>ADM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>HRS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>MTB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>GRMN</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>AMG</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>HON</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2013</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>ED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$34</c:f>
+              <c:f>Sheet1!$B$1:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>249</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>527</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>608</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>595</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>277</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>631</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>265</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>413</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>418</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>663</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>572</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>561</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>624</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>329</c:v>
+                  <c:v>538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -304,14 +176,15 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="975" baseline="0"/>
+              <a:defRPr sz="650" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -364,10 +237,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -674,282 +547,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1">
-        <v>1980</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>249</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1981</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>527</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1982</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>608</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1983</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>595</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1984</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1985</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>631</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1986</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>265</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1987</v>
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1988</v>
-      </c>
-      <c r="B9">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1989</v>
-      </c>
-      <c r="B10">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1990</v>
-      </c>
-      <c r="B11">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1991</v>
-      </c>
-      <c r="B12">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1992</v>
-      </c>
-      <c r="B13">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1993</v>
-      </c>
-      <c r="B14">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1994</v>
-      </c>
-      <c r="B15">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1995</v>
-      </c>
-      <c r="B16">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1996</v>
-      </c>
-      <c r="B17">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1997</v>
-      </c>
-      <c r="B18">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1998</v>
-      </c>
-      <c r="B19">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1999</v>
-      </c>
-      <c r="B20">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>2000</v>
-      </c>
-      <c r="B21">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>2001</v>
-      </c>
-      <c r="B22">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>2002</v>
-      </c>
-      <c r="B23">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>2003</v>
-      </c>
-      <c r="B24">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>2004</v>
-      </c>
-      <c r="B25">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>2005</v>
-      </c>
-      <c r="B26">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>2006</v>
-      </c>
-      <c r="B27">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>2007</v>
-      </c>
-      <c r="B28">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>2008</v>
-      </c>
-      <c r="B29">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>2009</v>
-      </c>
-      <c r="B30">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>2010</v>
-      </c>
-      <c r="B31">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>2011</v>
-      </c>
-      <c r="B32">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>2012</v>
-      </c>
-      <c r="B33">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>2013</v>
-      </c>
-      <c r="B34">
-        <v>329</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
